--- a/export/files/transacciones.xlsx
+++ b/export/files/transacciones.xlsx
@@ -34,10 +34,10 @@
     <x:t>user_id</x:t>
   </x:si>
   <x:si>
-    <x:t>Co7lpsLkl8V1O-mrqbQOO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-04-01T05:00:00.000Z</x:t>
+    <x:t>8ghD7vnKOv2Zqm5UZnrrP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-04-27T05:00:00.000Z</x:t>
   </x:si>
   <x:si>
     <x:t>14dc0ff67611590a256efcbe2edcfc6d</x:t>
